--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_340__Reeval_Halton_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_340__Reeval_Halton_Modell_1.3.xlsx
@@ -5987,7 +5987,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>13.02982616424561</c:v>
+                  <c:v>13.02982425689697</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>79.27471160888672</c:v>
@@ -6005,13 +6005,13 @@
                   <c:v>54.77851867675781</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.02271270751953</c:v>
+                  <c:v>54.02272033691406</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>66.35875701904297</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.05670166015625</c:v>
+                  <c:v>65.05669403076172</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>41.36743927001953</c:v>
@@ -6029,7 +6029,7 @@
                   <c:v>36.30226135253906</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.86966705322266</c:v>
+                  <c:v>79.86965942382812</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>91.52010345458984</c:v>
@@ -6044,7 +6044,7 @@
                   <c:v>76.90584564208984</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>76.04907989501953</c:v>
+                  <c:v>76.04908752441406</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>70.82264709472656</c:v>
@@ -6053,25 +6053,25 @@
                   <c:v>79.25547027587891</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.08834648132324</c:v>
+                  <c:v>29.08835029602051</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>68.33287048339844</c:v>
+                  <c:v>68.33285522460938</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85.525634765625</c:v>
+                  <c:v>85.52562713623047</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.64894104003906</c:v>
+                  <c:v>50.64893341064453</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45.08048248291016</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>83.70773315429688</c:v>
+                  <c:v>83.70771789550781</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>64.05356597900391</c:v>
+                  <c:v>64.05357360839844</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>80.76655578613281</c:v>
@@ -6089,10 +6089,10 @@
                   <c:v>68.79586029052734</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>68.08123779296875</c:v>
+                  <c:v>68.08124542236328</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>78.79817962646484</c:v>
+                  <c:v>78.79818725585938</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>87.27890014648438</c:v>
@@ -6104,16 +6104,16 @@
                   <c:v>86.96387481689453</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>68.59362030029297</c:v>
+                  <c:v>68.59361267089844</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>86.53631591796875</c:v>
+                  <c:v>86.53630828857422</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>41.7427978515625</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>48.47179412841797</c:v>
+                  <c:v>48.4718017578125</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>82.36457824707031</c:v>
@@ -6122,7 +6122,7 @@
                   <c:v>79.51371002197266</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>23.88505935668945</c:v>
+                  <c:v>23.88505744934082</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>54.97125244140625</c:v>
@@ -6158,7 +6158,7 @@
                   <c:v>78.81436920166016</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>72.9713134765625</c:v>
+                  <c:v>72.97130584716797</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>74.87470245361328</c:v>
@@ -6170,7 +6170,7 @@
                   <c:v>72.32835388183594</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>82.24132537841797</c:v>
+                  <c:v>82.2413330078125</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>98.33968353271484</c:v>
@@ -6194,19 +6194,19 @@
                   <c:v>75.94244384765625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>83.05094909667969</c:v>
+                  <c:v>83.05094146728516</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>42.52648162841797</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50.53895568847656</c:v>
+                  <c:v>50.53896331787109</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>25.57998847961426</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>38.46620941162109</c:v>
+                  <c:v>38.46620559692383</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>77.38893127441406</c:v>
@@ -6215,7 +6215,7 @@
                   <c:v>59.55416107177734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>94.78845977783203</c:v>
+                  <c:v>94.78846740722656</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>44.41551208496094</c:v>
@@ -6236,13 +6236,13 @@
                   <c:v>77.83919525146484</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>50.77684783935547</c:v>
+                  <c:v>50.77684020996094</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>88.54178619384766</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>56.19613647460938</c:v>
+                  <c:v>56.19614410400391</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>77.14215850830078</c:v>
@@ -6269,19 +6269,19 @@
                   <c:v>89.12570953369141</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>66.81273651123047</c:v>
+                  <c:v>66.812744140625</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>77.57127380371094</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>61.16177368164062</c:v>
+                  <c:v>61.16176605224609</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>79.46060180664062</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>78.74466705322266</c:v>
+                  <c:v>78.74467468261719</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>66.70063781738281</c:v>
@@ -6979,7 +6979,7 @@
         <v>7.10687</v>
       </c>
       <c r="F2">
-        <v>13.02982616424561</v>
+        <v>13.02982425689697</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>54.3965</v>
       </c>
       <c r="F8">
-        <v>54.02271270751953</v>
+        <v>54.02272033691406</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>69.0017</v>
       </c>
       <c r="F10">
-        <v>65.05670166015625</v>
+        <v>65.05669403076172</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>80.9817</v>
       </c>
       <c r="F16">
-        <v>79.86966705322266</v>
+        <v>79.86965942382812</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>77.6349</v>
       </c>
       <c r="F21">
-        <v>76.04907989501953</v>
+        <v>76.04908752441406</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>28.8436</v>
       </c>
       <c r="F24">
-        <v>29.08834648132324</v>
+        <v>29.08835029602051</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>79.1164</v>
       </c>
       <c r="F25">
-        <v>68.33287048339844</v>
+        <v>68.33285522460938</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>83.5823</v>
       </c>
       <c r="F26">
-        <v>85.525634765625</v>
+        <v>85.52562713623047</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>68.3349</v>
       </c>
       <c r="F27">
-        <v>50.64894104003906</v>
+        <v>50.64893341064453</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>87.8205</v>
       </c>
       <c r="F29">
-        <v>83.70773315429688</v>
+        <v>83.70771789550781</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>53.3083</v>
       </c>
       <c r="F30">
-        <v>64.05356597900391</v>
+        <v>64.05357360839844</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5368</v>
       </c>
       <c r="F36">
-        <v>68.08123779296875</v>
+        <v>68.08124542236328</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>79.1952</v>
       </c>
       <c r="F37">
-        <v>78.79817962646484</v>
+        <v>78.79818725585938</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>75.4286</v>
       </c>
       <c r="F41">
-        <v>68.59362030029297</v>
+        <v>68.59361267089844</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>91.84520000000001</v>
       </c>
       <c r="F42">
-        <v>86.53631591796875</v>
+        <v>86.53630828857422</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>62.7102</v>
       </c>
       <c r="F44">
-        <v>48.47179412841797</v>
+        <v>48.4718017578125</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>30.2573</v>
       </c>
       <c r="F47">
-        <v>23.88505935668945</v>
+        <v>23.88505744934082</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>67.5008</v>
       </c>
       <c r="F59">
-        <v>72.9713134765625</v>
+        <v>72.97130584716797</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>81.5342</v>
       </c>
       <c r="F63">
-        <v>82.24132537841797</v>
+        <v>82.2413330078125</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>80.3858</v>
       </c>
       <c r="F71">
-        <v>83.05094909667969</v>
+        <v>83.05094146728516</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>44.719</v>
       </c>
       <c r="F73">
-        <v>50.53895568847656</v>
+        <v>50.53896331787109</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>38.5218</v>
       </c>
       <c r="F75">
-        <v>38.46620941162109</v>
+        <v>38.46620559692383</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>95.4156</v>
       </c>
       <c r="F78">
-        <v>94.78845977783203</v>
+        <v>94.78846740722656</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>39.494</v>
       </c>
       <c r="F85">
-        <v>50.77684783935547</v>
+        <v>50.77684020996094</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>38.1825</v>
       </c>
       <c r="F87">
-        <v>56.19613647460938</v>
+        <v>56.19614410400391</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>58.8956</v>
       </c>
       <c r="F96">
-        <v>66.81273651123047</v>
+        <v>66.812744140625</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>51.1369</v>
       </c>
       <c r="F98">
-        <v>61.16177368164062</v>
+        <v>61.16176605224609</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>79.904</v>
       </c>
       <c r="F100">
-        <v>78.74466705322266</v>
+        <v>78.74467468261719</v>
       </c>
     </row>
     <row r="101" spans="1:6">
